--- a/tut05/output/0501EE13.xlsx
+++ b/tut05/output/0501EE13.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.938775510204081</v>
+        <v>7.94</v>
       </c>
       <c r="C6" t="n">
-        <v>6.545454545454546</v>
+        <v>6.55</v>
       </c>
       <c r="D6" t="n">
-        <v>7.804347826086956</v>
+        <v>7.8</v>
       </c>
       <c r="E6" t="n">
-        <v>7.630434782608695</v>
+        <v>7.63</v>
       </c>
       <c r="F6" t="n">
         <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>7.875</v>
+        <v>7.88</v>
       </c>
       <c r="H6" t="n">
-        <v>7.395348837209302</v>
+        <v>7.4</v>
       </c>
       <c r="I6" t="n">
-        <v>6.263157894736842</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.938775510204081</v>
+        <v>7.94</v>
       </c>
       <c r="C8" t="n">
-        <v>7.279569892473118</v>
+        <v>7.28</v>
       </c>
       <c r="D8" t="n">
-        <v>7.453237410071942</v>
+        <v>7.45</v>
       </c>
       <c r="E8" t="n">
-        <v>7.497297297297298</v>
+        <v>7.5</v>
       </c>
       <c r="F8" t="n">
-        <v>7.584821428571429</v>
+        <v>7.58</v>
       </c>
       <c r="G8" t="n">
-        <v>7.628787878787879</v>
+        <v>7.63</v>
       </c>
       <c r="H8" t="n">
-        <v>7.596091205211726</v>
+        <v>7.6</v>
       </c>
       <c r="I8" t="n">
-        <v>7.449275362318841</v>
+        <v>7.45</v>
       </c>
     </row>
   </sheetData>
